--- a/CD-valid/Input/Metadatatt.xlsx
+++ b/CD-valid/Input/Metadatatt.xlsx
@@ -1567,4 +1567,270 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46f3a809-46a3-44ee-a0f1-42a271529c86" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4CDFD2-F1F5-437D-A0F4-03FDAE4C4DE3}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F6E0D8-8776-4483-B0AB-B15FB3FD3836}"/>
 </file>
--- a/CD-valid/Input/Metadatatt.xlsx
+++ b/CD-valid/Input/Metadatatt.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhabiby\Documents\GitHub\eu-data-validation\CD-valid\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhabiby\Documents\GitHub\eu-data-validation\CD-valid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9815039-D369-4BB7-AFF2-6A3378D6A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F06A46-BF0A-4F36-BD34-9FCD89C57044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="289">
   <si>
     <t>variable</t>
   </si>
@@ -118,11 +118,10 @@
     <t>1.11: Government officials who abuse their power are sanctioned for misconduct (accountability and sanctions for misconduct)</t>
   </si>
   <si>
-    <t>Assume that a high-ranking government official is taking _x000D_
-government money for personal benefit. Assume that one of his employees witnesses this conduct, reports it to the relevant _x000D_
-authority, and provides sufficient evidence to prove it. Assume _x000D_
-that the press obtains the information and publishes the story. _x000D_
-_x000D_
+    <t>Assume that a high-ranking government official is taking 
+government money for personal benefit. Assume that one of his employees witnesses this conduct, reports it to the relevant 
+authority, and provides sufficient evidence to prove it. Assume 
+that the press obtains the information and publishes the story. 
 Which one of the following outcomes is most likely?</t>
   </si>
   <si>
@@ -177,6 +176,9 @@
     <t>Did you have to pay a bribe to receive the service or expedite the process?</t>
   </si>
   <si>
+    <t>2.5: Absence of corruption in electoral practices</t>
+  </si>
+  <si>
     <t>TRT_police</t>
   </si>
   <si>
@@ -264,7 +266,7 @@
     <t>q39f_G1</t>
   </si>
   <si>
-    <t>In practice, people in this neighborhood can get together with _x000D_
+    <t>In practice, people in this neighborhood can get together with 
 others and present their concerns to members of Parliament/Congress. Do you agree or disagree that the ability to present neighborhood concerns to elected representatives is important?</t>
   </si>
   <si>
@@ -295,7 +297,7 @@
     <t>q39f_G2</t>
   </si>
   <si>
-    <t xml:space="preserve">In [COUNTRY], people can freely attend community meetings. Do you agree or disagree that the freedom to attend community meetings is important?_x000D_
+    <t xml:space="preserve">In [COUNTRY], people can freely attend community meetings. Do you agree or disagree that the freedom to attend community meetings is important?
 </t>
   </si>
   <si>
@@ -401,28 +403,511 @@
     <t>Prosecutors in [COUNTRY] prosecute crimes committed in an independent manner and are not subject to any sort of pressure. Do you agree or disagree that prosecutors handle criminal cases independently and without external influence?</t>
   </si>
   <si>
+    <t>TRT_people</t>
+  </si>
+  <si>
+    <t>q1a</t>
+  </si>
+  <si>
+    <t>People living in this country. Please tell me, how much TRUST do you have in each of the following categories of people, groups of people, and institutions?</t>
+  </si>
+  <si>
+    <t>TRT_govt_local</t>
+  </si>
+  <si>
+    <t>q1b</t>
+  </si>
+  <si>
+    <t>Officers working in the local government. Please tell me, how much TRUST do you have in each of the following categories of people, groups of people, and institutions?</t>
+  </si>
+  <si>
+    <t>TRT_govt_national</t>
+  </si>
+  <si>
+    <t>q1c</t>
+  </si>
+  <si>
+    <t>Officers working in the national government. Please tell me, how much TRUST do you have in each of the following categories of people, groups of people, and institutions?</t>
+  </si>
+  <si>
+    <t>TRT_prosecutors</t>
+  </si>
+  <si>
+    <t>q1f</t>
+  </si>
+  <si>
+    <t>The prosecutors in charge of criminal investigations. Please tell me, how much TRUST do you have in each of the following categories of people, groups of people, and institutions?</t>
+  </si>
+  <si>
+    <t>TRT_pda</t>
+  </si>
+  <si>
+    <t>q1g</t>
+  </si>
+  <si>
+    <t>Public defense attorneys. Please tell me, how much TRUST do you have in each of the following categories of people, groups of people, and institutions?</t>
+  </si>
+  <si>
+    <t>TRT_judges</t>
+  </si>
+  <si>
+    <t>q1h</t>
+  </si>
+  <si>
+    <t>Judges and magistrates. Please tell me, how much TRUST do you have in each of the following categories of people, groups of people, and institutions?</t>
+  </si>
+  <si>
+    <t>TRT_media</t>
+  </si>
+  <si>
+    <t>q1i</t>
+  </si>
+  <si>
+    <t>The news media. Please tell me, how much TRUST do you have in each of the following categories of people, groups of people, and institutions?</t>
+  </si>
+  <si>
+    <t>ATC_recruitment_public</t>
+  </si>
+  <si>
+    <t>2.4. Absence of nepotism, favoritism, and patronage</t>
+  </si>
+  <si>
+    <t>q2a</t>
+  </si>
+  <si>
+    <t>A public officer being recruited on the basis of family ties and friendship networks.</t>
+  </si>
+  <si>
+    <t>ATC_brbrequest_public</t>
+  </si>
+  <si>
+    <t>2.1. Absence of Bribery</t>
+  </si>
+  <si>
+    <t>q2b</t>
+  </si>
+  <si>
+    <t>A public officer asking for a bribe to speed up administrative procedures.</t>
+  </si>
+  <si>
+    <t>ATC_brboffer_public</t>
+  </si>
+  <si>
+    <t>q2c</t>
+  </si>
+  <si>
+    <t>A private citizen offering a bribe to a public official to speed up administrative procedures.</t>
+  </si>
+  <si>
+    <t>ATC_embezz_priv</t>
+  </si>
+  <si>
+    <t>q2d</t>
+  </si>
+  <si>
+    <t>An elected official taking public funds for private use.</t>
+  </si>
+  <si>
+    <t>ATC_embezz_community</t>
+  </si>
+  <si>
+    <t>q2e</t>
+  </si>
+  <si>
+    <t>An elected official using stolen public funds to assist their community.</t>
+  </si>
+  <si>
+    <t>ATC_brbrequest_police</t>
+  </si>
+  <si>
+    <t>q2f</t>
+  </si>
+  <si>
+    <t>A law enforcement officer (police, customs, immigration, civil guard, military police) asking for a bribe.</t>
+  </si>
+  <si>
+    <t>8.1. Criminal Investigation</t>
+  </si>
+  <si>
+    <t>COR_prosecutors</t>
+  </si>
+  <si>
+    <t>q3e</t>
+  </si>
+  <si>
+    <t>The prosecutors in charge of criminal investigations. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
+  </si>
+  <si>
+    <t>8.2. Prosecution and pre-trial process</t>
+  </si>
+  <si>
+    <t>COR_pda</t>
+  </si>
+  <si>
+    <t>q3f</t>
+  </si>
+  <si>
+    <t>Public defense attorneys. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
+  </si>
+  <si>
+    <t>COR_landreg</t>
+  </si>
+  <si>
+    <t>q3h</t>
+  </si>
+  <si>
+    <t>Land registry officers. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
+  </si>
+  <si>
+    <t>COR_carreg</t>
+  </si>
+  <si>
+    <t>q3i</t>
+  </si>
+  <si>
+    <t>Car registration/driver license agency officers. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
+  </si>
+  <si>
+    <t>COR_pparties</t>
+  </si>
+  <si>
+    <t>q3j</t>
+  </si>
+  <si>
+    <t>Political parties. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
+  </si>
+  <si>
+    <t>BRB_permit_A</t>
+  </si>
+  <si>
+    <t>q6a</t>
+  </si>
+  <si>
+    <t>In the last three years, did you request a government permit, or process any kind of document (like a license, building permit, etc.) in a local government office?</t>
+  </si>
+  <si>
+    <t>BRB_benefits_A</t>
+  </si>
+  <si>
+    <t>q6b</t>
+  </si>
+  <si>
+    <t>In the last three years, did you request public benefits or government assistance, such as cash transfers, pensions, or disability benefits?</t>
+  </si>
+  <si>
+    <t>BRB_id_A</t>
+  </si>
+  <si>
+    <t>q6c</t>
+  </si>
+  <si>
+    <t>In the last three years, did you request a birth certificate for you or your children or a government issued ID card?</t>
+  </si>
+  <si>
+    <t>BRB_school_A</t>
+  </si>
+  <si>
+    <t>q6d</t>
+  </si>
+  <si>
+    <t>In the last three years, did you request a place at a public school?</t>
+  </si>
+  <si>
+    <t>BRB_health_A</t>
+  </si>
+  <si>
+    <t>q6e</t>
+  </si>
+  <si>
+    <t>In the last three years, did you use any PUBLIC health services?</t>
+  </si>
+  <si>
+    <t>BRB_benefits_B</t>
+  </si>
+  <si>
+    <t>q7b</t>
+  </si>
+  <si>
+    <t>BRB_id_B</t>
+  </si>
+  <si>
+    <t>q7c</t>
+  </si>
+  <si>
+    <t>BRB_school_B</t>
+  </si>
+  <si>
+    <t>q7d</t>
+  </si>
+  <si>
+    <t>CPA_freemedia</t>
+  </si>
+  <si>
+    <t>4.2 Freedoms</t>
+  </si>
+  <si>
+    <t>q39h_G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In [COUNTRY], the media (TV, radio, newspapers) are free to report the news without government influence or fear of retaliation. Do you agree or disagree that media freedom is important for unbiased news reporting?
+</t>
+  </si>
+  <si>
+    <t>CPA_cons_cso</t>
+  </si>
+  <si>
+    <t>3.2. Civic participation is effectively guaranteed</t>
+  </si>
+  <si>
+    <t>q39i_G1</t>
+  </si>
+  <si>
+    <t>In practice, the government collaborates with civil society organizations in designing public policy. Do you agree or disagree that government collaboration with civil society is important for public policy design?</t>
+  </si>
+  <si>
+    <t>CPB_protest</t>
+  </si>
+  <si>
+    <t>q40_G2</t>
+  </si>
+  <si>
+    <t>Attended a legal demonstration or protest march?</t>
+  </si>
+  <si>
+    <t>CJP_effective</t>
+  </si>
+  <si>
+    <t>q44a_G1</t>
+  </si>
+  <si>
+    <t>Is effective in bringing people who commit crimes to justice. Please tell us how confident you are that the criminal justice system as a whole:</t>
+  </si>
+  <si>
+    <t>CJP_efficient</t>
+  </si>
+  <si>
+    <t>q44b_G1</t>
+  </si>
+  <si>
+    <t>Deals with cases promptly and efficiently. Please tell us how confident you are that the criminal justice system as a whole:</t>
+  </si>
+  <si>
+    <t>CJP_access</t>
+  </si>
+  <si>
+    <t>q44c_G1</t>
+  </si>
+  <si>
+    <t>Makes sure everyone has access to the justice system if they need it. Please tell us how confident you are that the criminal justice system as a whole:</t>
+  </si>
+  <si>
+    <t>CJP_consistent</t>
+  </si>
+  <si>
+    <t>4.6. Justice</t>
+  </si>
+  <si>
+    <t>q44d_G1</t>
+  </si>
+  <si>
+    <t>Functions the same regardless of where you live? Please tell us how confident you are that the criminal justice system as a whole:</t>
+  </si>
+  <si>
+    <t>CJP_fairpunishment</t>
+  </si>
+  <si>
+    <t>8.3. Adjudication</t>
+  </si>
+  <si>
+    <t>q44e_G1</t>
+  </si>
+  <si>
+    <t>Gives punishments which fit the crime. Please tell us how confident you are that the criminal justice system as a whole:</t>
+  </si>
+  <si>
+    <t>CJP_egalitarian</t>
+  </si>
+  <si>
+    <t>8.5. Victim's Rights</t>
+  </si>
+  <si>
+    <t>q44g_G1</t>
+  </si>
+  <si>
+    <t>Allows all victims of crime to seek justice regardless of who they are. Please tell us how confident you are that the criminal justice system as a whole:</t>
+  </si>
+  <si>
+    <t>CJP_victimsupport</t>
+  </si>
+  <si>
+    <t>q44i_G1</t>
+  </si>
+  <si>
+    <t>Provides victims of crime with the service and support they need. Please tell us how confident you are that the criminal justice system as a whole:</t>
+  </si>
+  <si>
+    <t>PAB_censorinfo</t>
+  </si>
+  <si>
+    <t>1.10. Respect for civil liberties (absence of authoritarianism)</t>
+  </si>
+  <si>
+    <t>q48_G1</t>
+  </si>
+  <si>
+    <t>censor information from abroad. Do you agree or disagree that censoring information from abroad is a concerning practice?</t>
+  </si>
+  <si>
+    <t>PAB_censorvoices</t>
+  </si>
+  <si>
+    <t>q49_G1</t>
+  </si>
+  <si>
+    <t>censor opposition voices domestically. Do you agree or disagree that censoring domestic opposition voices is a concerning practice?</t>
+  </si>
+  <si>
+    <t>PAB_blamesoc</t>
+  </si>
+  <si>
+    <t>q50_G1</t>
+  </si>
+  <si>
+    <t>blame different members or groups of society for domestic problems. Do you agree or disagree that blaming various societal groups for domestic issues is a concerning practice?</t>
+  </si>
+  <si>
+    <t>PAB_blameext</t>
+  </si>
+  <si>
+    <t>q51_G1</t>
+  </si>
+  <si>
+    <t>blame external forces (i.e., other countries, regional or 
+international governing bodies) for domestic problems. Do you agree or disagree that blaming external forces for domestic problems is a concerning practice?</t>
+  </si>
+  <si>
+    <t>PAB_freecourts</t>
+  </si>
+  <si>
+    <t>q52_G1</t>
+  </si>
+  <si>
+    <t>seek to limit the courts’ competences and freedom to interpret 
+the law. Do you agree or disagree that seeking to limit the courts' authority and interpretative freedom is a concerning practice?</t>
+  </si>
+  <si>
+    <t>PAB_judgeprom</t>
+  </si>
+  <si>
+    <t>1.9. Respect for the electoral process (absence of authoritarianism)</t>
+  </si>
+  <si>
+    <t>q54_G1</t>
+  </si>
+  <si>
+    <t>seek to influence the promotion and removal of judges. Do you agree or disagree that seeking to influence the appointment and dismissal of judges is a concerning practice?</t>
+  </si>
+  <si>
+    <t>PAB_attackopp</t>
+  </si>
+  <si>
+    <t>q55_G1</t>
+  </si>
+  <si>
+    <t>attack or discredit opposition parties. Do you agree or disagree that attacking or discrediting opposition parties is a concerning practice?</t>
+  </si>
+  <si>
+    <t>PAB_prosecuteopp</t>
+  </si>
+  <si>
+    <t>q56_G1</t>
+  </si>
+  <si>
+    <t>prosecute and convict members of opposition parties. Do you agree or disagree that prosecuting and convicting members of opposition parties is a concerning practice?</t>
+  </si>
+  <si>
+    <t>LEP_polservpeopl</t>
+  </si>
+  <si>
+    <t>5.1. People feel safe</t>
+  </si>
+  <si>
+    <t>q43g_G2</t>
+  </si>
+  <si>
+    <t>The police in [COUNTRY] serve the interests of people like you. Do  you agree or disagree that the police serve the interests of individuals in your community, including people like you?</t>
+  </si>
+  <si>
+    <t>LEP_polservcom</t>
+  </si>
+  <si>
+    <t>q43h_G2</t>
+  </si>
+  <si>
+    <t>The police in [COUNTRY] serve the interests of your community. Do you agree or disagree that the police serve the interests of your local community?</t>
+  </si>
+  <si>
+    <t>PAB_distract</t>
+  </si>
+  <si>
+    <t>q49_G2</t>
+  </si>
+  <si>
+    <t>generate distractions from important issues and blame external enemies or internal traitors. Do you agree or disagree that distractions are created from critical matters while attributing domestic problems to external enemies or internal traitors?</t>
+  </si>
+  <si>
+    <t>PAB_credibility</t>
+  </si>
+  <si>
+    <t>q50_G2</t>
+  </si>
+  <si>
+    <t>deny criticisms and facts, and undermine the credibility of those presenting them.  Do you agree or disagree that criticisms and facts are denied and the credibility of those presenting them is undermined?</t>
+  </si>
+  <si>
+    <t>PAB_centralize</t>
+  </si>
+  <si>
+    <t>1.6. Respect for the legitimacy of the constitutional order, the law making process, and political opponents (absence of authoritarianism)</t>
+  </si>
+  <si>
+    <t>q51_G2</t>
+  </si>
+  <si>
+    <t>seek to centralize government functions and remove autonomy. Do you agree or disagree that efforts are made to centralize government functions and reduce autonomy of local authorities?
+from local authorities.</t>
+  </si>
+  <si>
+    <t>PAB_prosecutejourn</t>
+  </si>
+  <si>
+    <t>q53_G2</t>
+  </si>
+  <si>
+    <t>prosecute and convict journalists and leaders of civil society organizations that criticize them. Do you agree or disagree that journalists and leaders of civil society organizations who criticize certain entities are prosecuted and convicted?</t>
+  </si>
+  <si>
+    <t>PAB_attackelect</t>
+  </si>
+  <si>
+    <t>q55_G2</t>
+  </si>
+  <si>
+    <t>attack or discredit the electoral system and the electoral 
+supervisory organs. Do you agree or disagree that the electoral system and its supervisory organs are attacked or discredited?</t>
+  </si>
+  <si>
     <t>q57_G1 and q57_G2</t>
-  </si>
-  <si>
-    <t>2.5: Absence of corruption in electoral practices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -448,17 +933,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -471,9 +953,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,15 +993,11 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -551,10 +1029,6 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -583,7 +1057,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -757,28 +1231,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -912,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1008,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -1022,104 +1496,104 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1127,10 +1601,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -1144,10 +1618,10 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -1158,19 +1632,19 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1178,10 +1652,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1195,10 +1669,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -1212,10 +1686,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -1229,10 +1703,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1246,10 +1720,10 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1260,53 +1734,53 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1314,10 +1788,10 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -1328,36 +1802,36 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1365,10 +1839,10 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -1379,70 +1853,70 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1450,10 +1924,10 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
@@ -1464,19 +1938,19 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" t="s">
         <v>110</v>
-      </c>
-      <c r="C42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1484,10 +1958,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
         <v>112</v>
-      </c>
-      <c r="C43" t="s">
-        <v>111</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -1498,53 +1972,53 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
         <v>112</v>
       </c>
-      <c r="C45" t="s">
-        <v>111</v>
-      </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1552,10 +2026,10 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
@@ -1564,273 +2038,943 @@
         <v>29</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>215</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" t="s">
+        <v>216</v>
+      </c>
+      <c r="E80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>226</v>
+      </c>
+      <c r="E83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" t="s">
+        <v>226</v>
+      </c>
+      <c r="E84" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" t="s">
+        <v>230</v>
+      </c>
+      <c r="E85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" t="s">
+        <v>234</v>
+      </c>
+      <c r="E86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" t="s">
+        <v>240</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>244</v>
+      </c>
+      <c r="E89" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>247</v>
+      </c>
+      <c r="E90" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>250</v>
+      </c>
+      <c r="E91" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>253</v>
+      </c>
+      <c r="E92" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>257</v>
+      </c>
+      <c r="E93" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>260</v>
+      </c>
+      <c r="E94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>263</v>
+      </c>
+      <c r="E95" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" t="s">
+        <v>267</v>
+      </c>
+      <c r="E96" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>269</v>
+      </c>
+      <c r="B97" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>270</v>
+      </c>
+      <c r="E97" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>272</v>
+      </c>
+      <c r="B98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>273</v>
+      </c>
+      <c r="E98" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>275</v>
+      </c>
+      <c r="B99" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>276</v>
+      </c>
+      <c r="E99" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>278</v>
+      </c>
+      <c r="B100" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>280</v>
+      </c>
+      <c r="E100" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>282</v>
+      </c>
+      <c r="B101" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>283</v>
+      </c>
+      <c r="E101" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>285</v>
+      </c>
+      <c r="B102" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>286</v>
+      </c>
+      <c r="E102" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
-    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46f3a809-46a3-44ee-a0f1-42a271529c86" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4CDFD2-F1F5-437D-A0F4-03FDAE4C4DE3}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F6E0D8-8776-4483-B0AB-B15FB3FD3836}"/>
 </file>
--- a/CD-valid/Input/Metadatatt.xlsx
+++ b/CD-valid/Input/Metadatatt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhabiby\Documents\GitHub\eu-data-validation\CD-valid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhabiby\Documents\GitHub\eu-data-validation\CD-valid\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F06A46-BF0A-4F36-BD34-9FCD89C57044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A18B499-3B66-4E0F-94B0-17111D666905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="282">
   <si>
     <t>variable</t>
   </si>
@@ -128,9 +128,6 @@
     <t>COR_parliament</t>
   </si>
   <si>
-    <t>2.1: Absence of Embezzlement and fraud</t>
-  </si>
-  <si>
     <t>2: Absence of Corruption</t>
   </si>
   <si>
@@ -481,9 +478,6 @@
     <t>ATC_brbrequest_public</t>
   </si>
   <si>
-    <t>2.1. Absence of Bribery</t>
-  </si>
-  <si>
     <t>q2b</t>
   </si>
   <si>
@@ -526,9 +520,6 @@
     <t>A law enforcement officer (police, customs, immigration, civil guard, military police) asking for a bribe.</t>
   </si>
   <si>
-    <t>8.1. Criminal Investigation</t>
-  </si>
-  <si>
     <t>COR_prosecutors</t>
   </si>
   <si>
@@ -538,9 +529,6 @@
     <t>The prosecutors in charge of criminal investigations. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
   </si>
   <si>
-    <t>8.2. Prosecution and pre-trial process</t>
-  </si>
-  <si>
     <t>COR_pda</t>
   </si>
   <si>
@@ -641,9 +629,6 @@
   </si>
   <si>
     <t>CPA_freemedia</t>
-  </si>
-  <si>
-    <t>4.2 Freedoms</t>
   </si>
   <si>
     <t>q39h_G1</t>
@@ -656,9 +641,6 @@
     <t>CPA_cons_cso</t>
   </si>
   <si>
-    <t>3.2. Civic participation is effectively guaranteed</t>
-  </si>
-  <si>
     <t>q39i_G1</t>
   </si>
   <si>
@@ -714,9 +696,6 @@
   </si>
   <si>
     <t>CJP_fairpunishment</t>
-  </si>
-  <si>
-    <t>8.3. Adjudication</t>
   </si>
   <si>
     <t>q44e_G1</t>
@@ -829,9 +808,6 @@
     <t>LEP_polservpeopl</t>
   </si>
   <si>
-    <t>5.1. People feel safe</t>
-  </si>
-  <si>
     <t>q43g_G2</t>
   </si>
   <si>
@@ -898,6 +874,9 @@
   </si>
   <si>
     <t>q57_G1 and q57_G2</t>
+  </si>
+  <si>
+    <t>2.1: Absence of Bribery</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1386,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1397,84 +1376,84 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1482,10 +1461,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1496,104 +1475,104 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1601,10 +1580,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
         <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -1618,10 +1597,10 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
         <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -1632,19 +1611,19 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1652,10 +1631,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1669,10 +1648,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -1686,10 +1665,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -1703,10 +1682,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1720,10 +1699,10 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
         <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1734,53 +1713,53 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
         <v>81</v>
       </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>82</v>
-      </c>
-      <c r="E31" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
         <v>85</v>
       </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>86</v>
-      </c>
-      <c r="E32" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1788,10 +1767,10 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
         <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -1802,36 +1781,36 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
         <v>88</v>
       </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>89</v>
-      </c>
-      <c r="E34" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>92</v>
-      </c>
-      <c r="E35" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1839,10 +1818,10 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
         <v>75</v>
-      </c>
-      <c r="C36" t="s">
-        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -1853,70 +1832,70 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
         <v>94</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>95</v>
-      </c>
-      <c r="E37" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
         <v>97</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
         <v>98</v>
       </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>99</v>
-      </c>
-      <c r="E38" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>102</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>103</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>104</v>
-      </c>
-      <c r="E39" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
         <v>106</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>107</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>108</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>109</v>
-      </c>
-      <c r="E40" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1924,10 +1903,10 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
@@ -1938,87 +1917,87 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
         <v>111</v>
       </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
       <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
         <v>109</v>
-      </c>
-      <c r="E42" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>45</v>
-      </c>
-      <c r="E43" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
         <v>114</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
         <v>115</v>
       </c>
-      <c r="C44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>116</v>
-      </c>
-      <c r="E44" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
         <v>118</v>
       </c>
-      <c r="B45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>119</v>
-      </c>
-      <c r="E45" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
         <v>121</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
         <v>122</v>
       </c>
-      <c r="C46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>123</v>
-      </c>
-      <c r="E46" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -2026,10 +2005,10 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
         <v>111</v>
-      </c>
-      <c r="C47" t="s">
-        <v>112</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
@@ -2040,937 +2019,937 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
         <v>125</v>
       </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>126</v>
-      </c>
-      <c r="E48" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
         <v>128</v>
       </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>129</v>
-      </c>
-      <c r="E49" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
         <v>131</v>
       </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>132</v>
-      </c>
-      <c r="E50" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
         <v>134</v>
       </c>
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>135</v>
-      </c>
-      <c r="E51" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
         <v>137</v>
       </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>138</v>
-      </c>
-      <c r="E52" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
         <v>140</v>
       </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>141</v>
-      </c>
-      <c r="E53" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
         <v>143</v>
       </c>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>144</v>
-      </c>
-      <c r="E54" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s">
         <v>146</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
         <v>147</v>
       </c>
-      <c r="C55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>148</v>
-      </c>
-      <c r="E55" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
         <v>150</v>
       </c>
-      <c r="B56" t="s">
+      <c r="E56" t="s">
         <v>151</v>
-      </c>
-      <c r="C56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" t="s">
-        <v>152</v>
-      </c>
-      <c r="E56" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" t="s">
         <v>154</v>
-      </c>
-      <c r="B57" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" t="s">
         <v>157</v>
-      </c>
-      <c r="B58" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" t="s">
         <v>160</v>
-      </c>
-      <c r="B59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" t="s">
-        <v>161</v>
-      </c>
-      <c r="E59" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" t="s">
         <v>163</v>
-      </c>
-      <c r="B60" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" t="s">
-        <v>164</v>
-      </c>
-      <c r="E60" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" t="s">
         <v>163</v>
-      </c>
-      <c r="B61" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E68" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E70" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E73" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E77" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D79" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E79" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E81" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E83" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E84" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E85" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E86" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B87" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E88" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E89" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E90" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E91" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E92" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B93" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B94" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E94" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E95" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B96" t="s">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D96" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E96" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D97" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E97" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E98" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E99" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E100" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B102" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E102" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/CD-valid/Input/Metadatatt.xlsx
+++ b/CD-valid/Input/Metadatatt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhabiby\Documents\GitHub\eu-data-validation\CD-valid\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A18B499-3B66-4E0F-94B0-17111D666905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA541C9F-28E2-42C0-BCE1-2426CA21D3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,9 +778,6 @@
     <t>PAB_judgeprom</t>
   </si>
   <si>
-    <t>1.9. Respect for the electoral process (absence of authoritarianism)</t>
-  </si>
-  <si>
     <t>q54_G1</t>
   </si>
   <si>
@@ -842,9 +839,6 @@
   </si>
   <si>
     <t>PAB_centralize</t>
-  </si>
-  <si>
-    <t>1.6. Respect for the legitimacy of the constitutional order, the law making process, and political opponents (absence of authoritarianism)</t>
   </si>
   <si>
     <t>q51_G2</t>
@@ -877,6 +871,12 @@
   </si>
   <si>
     <t>2.1: Absence of Bribery</t>
+  </si>
+  <si>
+    <t>1.06. Respect for the legitimacy of the constitutional order, the law making process, and political opponents (absence of authoritarianism)</t>
+  </si>
+  <si>
+    <t>1.09. Respect for the electoral process (absence of authoritarianism)</t>
   </si>
 </sst>
 </file>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1365,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1376,7 +1376,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1393,7 +1393,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -1410,7 +1410,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1427,7 +1427,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -1444,7 +1444,7 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -2158,7 +2158,7 @@
         <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C56" t="s">
         <v>34</v>
@@ -2175,7 +2175,7 @@
         <v>152</v>
       </c>
       <c r="B57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
@@ -2192,7 +2192,7 @@
         <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C58" t="s">
         <v>34</v>
@@ -2209,7 +2209,7 @@
         <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
@@ -2226,7 +2226,7 @@
         <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
         <v>34</v>
@@ -2260,7 +2260,7 @@
         <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C62" t="s">
         <v>34</v>
@@ -2294,7 +2294,7 @@
         <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C64" t="s">
         <v>34</v>
@@ -2328,7 +2328,7 @@
         <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C66" t="s">
         <v>34</v>
@@ -2345,7 +2345,7 @@
         <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s">
         <v>34</v>
@@ -2362,7 +2362,7 @@
         <v>176</v>
       </c>
       <c r="B68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C68" t="s">
         <v>34</v>
@@ -2379,7 +2379,7 @@
         <v>179</v>
       </c>
       <c r="B69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
@@ -2396,7 +2396,7 @@
         <v>182</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
         <v>34</v>
@@ -2413,7 +2413,7 @@
         <v>185</v>
       </c>
       <c r="B71" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C71" t="s">
         <v>34</v>
@@ -2430,7 +2430,7 @@
         <v>188</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C72" t="s">
         <v>34</v>
@@ -2447,7 +2447,7 @@
         <v>191</v>
       </c>
       <c r="B73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
@@ -2464,7 +2464,7 @@
         <v>194</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C74" t="s">
         <v>34</v>
@@ -2481,7 +2481,7 @@
         <v>196</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C75" t="s">
         <v>34</v>
@@ -2498,7 +2498,7 @@
         <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C76" t="s">
         <v>34</v>
@@ -2787,38 +2787,38 @@
         <v>248</v>
       </c>
       <c r="B93" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" t="s">
         <v>250</v>
-      </c>
-      <c r="E93" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
+        <v>252</v>
+      </c>
+      <c r="E94" t="s">
         <v>253</v>
-      </c>
-      <c r="E94" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B95" t="s">
         <v>233</v>
@@ -2827,15 +2827,15 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
+        <v>255</v>
+      </c>
+      <c r="E95" t="s">
         <v>256</v>
-      </c>
-      <c r="E95" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B96" t="s">
         <v>101</v>
@@ -2844,15 +2844,15 @@
         <v>102</v>
       </c>
       <c r="D96" t="s">
+        <v>258</v>
+      </c>
+      <c r="E96" t="s">
         <v>259</v>
-      </c>
-      <c r="E96" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
         <v>101</v>
@@ -2861,15 +2861,15 @@
         <v>102</v>
       </c>
       <c r="D97" t="s">
+        <v>261</v>
+      </c>
+      <c r="E97" t="s">
         <v>262</v>
-      </c>
-      <c r="E97" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B98" t="s">
         <v>233</v>
@@ -2878,15 +2878,15 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
+        <v>264</v>
+      </c>
+      <c r="E98" t="s">
         <v>265</v>
-      </c>
-      <c r="E98" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B99" t="s">
         <v>233</v>
@@ -2895,32 +2895,32 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
+        <v>267</v>
+      </c>
+      <c r="E99" t="s">
         <v>268</v>
-      </c>
-      <c r="E99" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B100" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B101" t="s">
         <v>233</v>
@@ -2929,27 +2929,27 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E101" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/CD-valid/Input/Metadatatt.xlsx
+++ b/CD-valid/Input/Metadatatt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhabiby\Documents\GitHub\eu-data-validation\CD-valid\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA541C9F-28E2-42C0-BCE1-2426CA21D3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F80506E-3BCF-44F5-9803-3B4F443ABC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="196">
   <si>
     <t>variable</t>
   </si>
@@ -463,63 +463,6 @@
     <t>The news media. Please tell me, how much TRUST do you have in each of the following categories of people, groups of people, and institutions?</t>
   </si>
   <si>
-    <t>ATC_recruitment_public</t>
-  </si>
-  <si>
-    <t>2.4. Absence of nepotism, favoritism, and patronage</t>
-  </si>
-  <si>
-    <t>q2a</t>
-  </si>
-  <si>
-    <t>A public officer being recruited on the basis of family ties and friendship networks.</t>
-  </si>
-  <si>
-    <t>ATC_brbrequest_public</t>
-  </si>
-  <si>
-    <t>q2b</t>
-  </si>
-  <si>
-    <t>A public officer asking for a bribe to speed up administrative procedures.</t>
-  </si>
-  <si>
-    <t>ATC_brboffer_public</t>
-  </si>
-  <si>
-    <t>q2c</t>
-  </si>
-  <si>
-    <t>A private citizen offering a bribe to a public official to speed up administrative procedures.</t>
-  </si>
-  <si>
-    <t>ATC_embezz_priv</t>
-  </si>
-  <si>
-    <t>q2d</t>
-  </si>
-  <si>
-    <t>An elected official taking public funds for private use.</t>
-  </si>
-  <si>
-    <t>ATC_embezz_community</t>
-  </si>
-  <si>
-    <t>q2e</t>
-  </si>
-  <si>
-    <t>An elected official using stolen public funds to assist their community.</t>
-  </si>
-  <si>
-    <t>ATC_brbrequest_police</t>
-  </si>
-  <si>
-    <t>q2f</t>
-  </si>
-  <si>
-    <t>A law enforcement officer (police, customs, immigration, civil guard, military police) asking for a bribe.</t>
-  </si>
-  <si>
     <t>COR_prosecutors</t>
   </si>
   <si>
@@ -536,33 +479,6 @@
   </si>
   <si>
     <t>Public defense attorneys. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
-  </si>
-  <si>
-    <t>COR_landreg</t>
-  </si>
-  <si>
-    <t>q3h</t>
-  </si>
-  <si>
-    <t>Land registry officers. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
-  </si>
-  <si>
-    <t>COR_carreg</t>
-  </si>
-  <si>
-    <t>q3i</t>
-  </si>
-  <si>
-    <t>Car registration/driver license agency officers. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
-  </si>
-  <si>
-    <t>COR_pparties</t>
-  </si>
-  <si>
-    <t>q3j</t>
-  </si>
-  <si>
-    <t>Political parties. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
   </si>
   <si>
     <t>BRB_permit_A</t>
@@ -647,24 +563,6 @@
     <t>In practice, the government collaborates with civil society organizations in designing public policy. Do you agree or disagree that government collaboration with civil society is important for public policy design?</t>
   </si>
   <si>
-    <t>CPB_protest</t>
-  </si>
-  <si>
-    <t>q40_G2</t>
-  </si>
-  <si>
-    <t>Attended a legal demonstration or protest march?</t>
-  </si>
-  <si>
-    <t>CJP_effective</t>
-  </si>
-  <si>
-    <t>q44a_G1</t>
-  </si>
-  <si>
-    <t>Is effective in bringing people who commit crimes to justice. Please tell us how confident you are that the criminal justice system as a whole:</t>
-  </si>
-  <si>
     <t>CJP_efficient</t>
   </si>
   <si>
@@ -683,18 +581,6 @@
     <t>Makes sure everyone has access to the justice system if they need it. Please tell us how confident you are that the criminal justice system as a whole:</t>
   </si>
   <si>
-    <t>CJP_consistent</t>
-  </si>
-  <si>
-    <t>4.6. Justice</t>
-  </si>
-  <si>
-    <t>q44d_G1</t>
-  </si>
-  <si>
-    <t>Functions the same regardless of where you live? Please tell us how confident you are that the criminal justice system as a whole:</t>
-  </si>
-  <si>
     <t>CJP_fairpunishment</t>
   </si>
   <si>
@@ -707,9 +593,6 @@
     <t>CJP_egalitarian</t>
   </si>
   <si>
-    <t>8.5. Victim's Rights</t>
-  </si>
-  <si>
     <t>q44g_G1</t>
   </si>
   <si>
@@ -725,158 +608,13 @@
     <t>Provides victims of crime with the service and support they need. Please tell us how confident you are that the criminal justice system as a whole:</t>
   </si>
   <si>
-    <t>PAB_censorinfo</t>
-  </si>
-  <si>
-    <t>1.10. Respect for civil liberties (absence of authoritarianism)</t>
-  </si>
-  <si>
-    <t>q48_G1</t>
-  </si>
-  <si>
-    <t>censor information from abroad. Do you agree or disagree that censoring information from abroad is a concerning practice?</t>
-  </si>
-  <si>
-    <t>PAB_censorvoices</t>
-  </si>
-  <si>
-    <t>q49_G1</t>
-  </si>
-  <si>
-    <t>censor opposition voices domestically. Do you agree or disagree that censoring domestic opposition voices is a concerning practice?</t>
-  </si>
-  <si>
-    <t>PAB_blamesoc</t>
-  </si>
-  <si>
-    <t>q50_G1</t>
-  </si>
-  <si>
-    <t>blame different members or groups of society for domestic problems. Do you agree or disagree that blaming various societal groups for domestic issues is a concerning practice?</t>
-  </si>
-  <si>
-    <t>PAB_blameext</t>
-  </si>
-  <si>
-    <t>q51_G1</t>
-  </si>
-  <si>
-    <t>blame external forces (i.e., other countries, regional or 
-international governing bodies) for domestic problems. Do you agree or disagree that blaming external forces for domestic problems is a concerning practice?</t>
-  </si>
-  <si>
-    <t>PAB_freecourts</t>
-  </si>
-  <si>
-    <t>q52_G1</t>
-  </si>
-  <si>
-    <t>seek to limit the courts’ competences and freedom to interpret 
-the law. Do you agree or disagree that seeking to limit the courts' authority and interpretative freedom is a concerning practice?</t>
-  </si>
-  <si>
-    <t>PAB_judgeprom</t>
-  </si>
-  <si>
-    <t>q54_G1</t>
-  </si>
-  <si>
-    <t>seek to influence the promotion and removal of judges. Do you agree or disagree that seeking to influence the appointment and dismissal of judges is a concerning practice?</t>
-  </si>
-  <si>
-    <t>PAB_attackopp</t>
-  </si>
-  <si>
-    <t>q55_G1</t>
-  </si>
-  <si>
-    <t>attack or discredit opposition parties. Do you agree or disagree that attacking or discrediting opposition parties is a concerning practice?</t>
-  </si>
-  <si>
-    <t>PAB_prosecuteopp</t>
-  </si>
-  <si>
-    <t>q56_G1</t>
-  </si>
-  <si>
-    <t>prosecute and convict members of opposition parties. Do you agree or disagree that prosecuting and convicting members of opposition parties is a concerning practice?</t>
-  </si>
-  <si>
-    <t>LEP_polservpeopl</t>
-  </si>
-  <si>
-    <t>q43g_G2</t>
-  </si>
-  <si>
-    <t>The police in [COUNTRY] serve the interests of people like you. Do  you agree or disagree that the police serve the interests of individuals in your community, including people like you?</t>
-  </si>
-  <si>
-    <t>LEP_polservcom</t>
-  </si>
-  <si>
-    <t>q43h_G2</t>
-  </si>
-  <si>
-    <t>The police in [COUNTRY] serve the interests of your community. Do you agree or disagree that the police serve the interests of your local community?</t>
-  </si>
-  <si>
-    <t>PAB_distract</t>
-  </si>
-  <si>
-    <t>q49_G2</t>
-  </si>
-  <si>
-    <t>generate distractions from important issues and blame external enemies or internal traitors. Do you agree or disagree that distractions are created from critical matters while attributing domestic problems to external enemies or internal traitors?</t>
-  </si>
-  <si>
-    <t>PAB_credibility</t>
-  </si>
-  <si>
-    <t>q50_G2</t>
-  </si>
-  <si>
-    <t>deny criticisms and facts, and undermine the credibility of those presenting them.  Do you agree or disagree that criticisms and facts are denied and the credibility of those presenting them is undermined?</t>
-  </si>
-  <si>
-    <t>PAB_centralize</t>
-  </si>
-  <si>
-    <t>q51_G2</t>
-  </si>
-  <si>
-    <t>seek to centralize government functions and remove autonomy. Do you agree or disagree that efforts are made to centralize government functions and reduce autonomy of local authorities?
-from local authorities.</t>
-  </si>
-  <si>
-    <t>PAB_prosecutejourn</t>
-  </si>
-  <si>
-    <t>q53_G2</t>
-  </si>
-  <si>
-    <t>prosecute and convict journalists and leaders of civil society organizations that criticize them. Do you agree or disagree that journalists and leaders of civil society organizations who criticize certain entities are prosecuted and convicted?</t>
-  </si>
-  <si>
-    <t>PAB_attackelect</t>
-  </si>
-  <si>
-    <t>q55_G2</t>
-  </si>
-  <si>
-    <t>attack or discredit the electoral system and the electoral 
-supervisory organs. Do you agree or disagree that the electoral system and its supervisory organs are attacked or discredited?</t>
-  </si>
-  <si>
     <t>q57_G1 and q57_G2</t>
   </si>
   <si>
     <t>2.1: Absence of Bribery</t>
   </si>
   <si>
-    <t>1.06. Respect for the legitimacy of the constitutional order, the law making process, and political opponents (absence of authoritarianism)</t>
-  </si>
-  <si>
-    <t>1.09. Respect for the electoral process (absence of authoritarianism)</t>
+    <t>8.5: Victim's Rights</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1365,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1376,7 +1114,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1393,7 +1131,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -1410,7 +1148,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1427,7 +1165,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -1444,7 +1182,7 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -2141,186 +1879,186 @@
         <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
         <v>34</v>
       </c>
       <c r="D55" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" t="s">
         <v>147</v>
-      </c>
-      <c r="E55" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
         <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
         <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
         <v>164</v>
       </c>
-      <c r="B63" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>165</v>
-      </c>
-      <c r="E63" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
         <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2328,7 +2066,7 @@
         <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C66" t="s">
         <v>34</v>
@@ -2337,619 +2075,126 @@
         <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" t="s">
         <v>173</v>
       </c>
-      <c r="B67" t="s">
-        <v>279</v>
-      </c>
-      <c r="C67" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>174</v>
-      </c>
-      <c r="E67" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
         <v>176</v>
       </c>
-      <c r="B68" t="s">
-        <v>279</v>
-      </c>
-      <c r="C68" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>177</v>
-      </c>
-      <c r="E68" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" t="s">
         <v>179</v>
       </c>
-      <c r="B69" t="s">
-        <v>279</v>
-      </c>
-      <c r="C69" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>180</v>
-      </c>
-      <c r="E69" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" t="s">
         <v>182</v>
       </c>
-      <c r="B70" t="s">
-        <v>279</v>
-      </c>
-      <c r="C70" t="s">
-        <v>34</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>183</v>
-      </c>
-      <c r="E70" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" t="s">
         <v>185</v>
       </c>
-      <c r="B71" t="s">
-        <v>279</v>
-      </c>
-      <c r="C71" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>186</v>
-      </c>
-      <c r="E71" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" t="s">
         <v>188</v>
       </c>
-      <c r="B72" t="s">
-        <v>279</v>
-      </c>
-      <c r="C72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>189</v>
-      </c>
-      <c r="E72" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" t="s">
         <v>191</v>
       </c>
-      <c r="B73" t="s">
-        <v>279</v>
-      </c>
-      <c r="C73" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>192</v>
-      </c>
-      <c r="E73" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>194</v>
-      </c>
-      <c r="B74" t="s">
-        <v>279</v>
-      </c>
-      <c r="C74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" t="s">
-        <v>195</v>
-      </c>
-      <c r="E74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>196</v>
-      </c>
-      <c r="B75" t="s">
-        <v>279</v>
-      </c>
-      <c r="C75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" t="s">
-        <v>197</v>
-      </c>
-      <c r="E75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>198</v>
-      </c>
-      <c r="B76" t="s">
-        <v>279</v>
-      </c>
-      <c r="C76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" t="s">
-        <v>199</v>
-      </c>
-      <c r="E76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>200</v>
-      </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" t="s">
-        <v>201</v>
-      </c>
-      <c r="E77" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>203</v>
-      </c>
-      <c r="B78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" t="s">
-        <v>204</v>
-      </c>
-      <c r="E78" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>206</v>
-      </c>
-      <c r="B79" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" t="s">
-        <v>207</v>
-      </c>
-      <c r="E79" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>209</v>
-      </c>
-      <c r="B80" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>212</v>
-      </c>
-      <c r="B81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" t="s">
-        <v>111</v>
-      </c>
-      <c r="D81" t="s">
-        <v>213</v>
-      </c>
-      <c r="E81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>215</v>
-      </c>
-      <c r="B82" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" t="s">
-        <v>111</v>
-      </c>
-      <c r="D82" t="s">
-        <v>216</v>
-      </c>
-      <c r="E82" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B83" t="s">
-        <v>219</v>
-      </c>
-      <c r="C83" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>218</v>
-      </c>
-      <c r="B84" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" t="s">
-        <v>220</v>
-      </c>
-      <c r="E84" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>222</v>
-      </c>
-      <c r="B85" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" t="s">
-        <v>223</v>
-      </c>
-      <c r="E85" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>225</v>
-      </c>
-      <c r="B86" t="s">
-        <v>226</v>
-      </c>
-      <c r="C86" t="s">
-        <v>111</v>
-      </c>
-      <c r="D86" t="s">
-        <v>227</v>
-      </c>
-      <c r="E86" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>229</v>
-      </c>
-      <c r="B87" t="s">
-        <v>226</v>
-      </c>
-      <c r="C87" t="s">
-        <v>111</v>
-      </c>
-      <c r="D87" t="s">
-        <v>230</v>
-      </c>
-      <c r="E87" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>232</v>
-      </c>
-      <c r="B88" t="s">
-        <v>233</v>
-      </c>
-      <c r="C88" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" t="s">
-        <v>234</v>
-      </c>
-      <c r="E88" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>236</v>
-      </c>
-      <c r="B89" t="s">
-        <v>233</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
-        <v>237</v>
-      </c>
-      <c r="E89" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>239</v>
-      </c>
-      <c r="B90" t="s">
-        <v>233</v>
-      </c>
-      <c r="C90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" t="s">
-        <v>240</v>
-      </c>
-      <c r="E90" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>242</v>
-      </c>
-      <c r="B91" t="s">
-        <v>233</v>
-      </c>
-      <c r="C91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" t="s">
-        <v>243</v>
-      </c>
-      <c r="E91" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>245</v>
-      </c>
-      <c r="B92" t="s">
-        <v>233</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>246</v>
-      </c>
-      <c r="E92" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>248</v>
-      </c>
-      <c r="B93" t="s">
-        <v>281</v>
-      </c>
-      <c r="C93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>249</v>
-      </c>
-      <c r="E93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>251</v>
-      </c>
-      <c r="B94" t="s">
-        <v>281</v>
-      </c>
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
-        <v>252</v>
-      </c>
-      <c r="E94" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>254</v>
-      </c>
-      <c r="B95" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>255</v>
-      </c>
-      <c r="E95" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>257</v>
-      </c>
-      <c r="B96" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" t="s">
-        <v>102</v>
-      </c>
-      <c r="D96" t="s">
-        <v>258</v>
-      </c>
-      <c r="E96" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>260</v>
-      </c>
-      <c r="B97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" t="s">
-        <v>102</v>
-      </c>
-      <c r="D97" t="s">
-        <v>261</v>
-      </c>
-      <c r="E97" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>263</v>
-      </c>
-      <c r="B98" t="s">
-        <v>233</v>
-      </c>
-      <c r="C98" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" t="s">
-        <v>264</v>
-      </c>
-      <c r="E98" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>266</v>
-      </c>
-      <c r="B99" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" t="s">
-        <v>267</v>
-      </c>
-      <c r="E99" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>269</v>
-      </c>
-      <c r="B100" t="s">
-        <v>280</v>
-      </c>
-      <c r="C100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" t="s">
-        <v>270</v>
-      </c>
-      <c r="E100" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>272</v>
-      </c>
-      <c r="B101" t="s">
-        <v>233</v>
-      </c>
-      <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" t="s">
-        <v>273</v>
-      </c>
-      <c r="E101" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>275</v>
-      </c>
-      <c r="B102" t="s">
-        <v>281</v>
-      </c>
-      <c r="C102" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" t="s">
-        <v>276</v>
-      </c>
-      <c r="E102" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/CD-valid/Input/Metadatatt.xlsx
+++ b/CD-valid/Input/Metadatatt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhabiby\Documents\GitHub\eu-data-validation\CD-valid\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F80506E-3BCF-44F5-9803-3B4F443ABC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30379589-71E1-4451-B6FE-D02F7C8FB978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="194">
   <si>
     <t>variable</t>
   </si>
   <si>
-    <t>subpillar</t>
-  </si>
-  <si>
-    <t>pillar</t>
-  </si>
-  <si>
     <t>2023  EU Questionnaire</t>
   </si>
   <si>
@@ -40,30 +34,36 @@
     <t>CPA_media_freeop</t>
   </si>
   <si>
-    <t>1.05: Non-governmental checks</t>
-  </si>
-  <si>
-    <t>1: Constraints on Government Powers</t>
-  </si>
-  <si>
     <t>q39b_G1</t>
   </si>
   <si>
     <t>In [COUNTRY], the media (TV, radio, newspapers)  can freely express opinions against government officials, policies and actions without fear of retaliation. Do you agree or disagree that media freedom to criticize government is important?</t>
   </si>
   <si>
+    <t>3.2: Civic participation is effectively guaranteed</t>
+  </si>
+  <si>
+    <t>3: Open Government</t>
+  </si>
+  <si>
+    <t>4.2: Freedoms</t>
+  </si>
+  <si>
+    <t>4: Fundamental Rights</t>
+  </si>
+  <si>
     <t>CPA_cleanelec_local</t>
   </si>
   <si>
-    <t>1.04: Elections are free, fair, and secure</t>
-  </si>
-  <si>
     <t>q39c_G1</t>
   </si>
   <si>
     <t>In practice, in [COUNTRY], local government officials are elected through a clean process. Do you agree or disagree that clean and fair local government elections are important?</t>
   </si>
   <si>
+    <t>4.5: Citizens' Rights</t>
+  </si>
+  <si>
     <t>CPA_freevote</t>
   </si>
   <si>
@@ -103,19 +103,28 @@
     <t>JSE_indjudges</t>
   </si>
   <si>
-    <t>1.02: Judicial Constraints</t>
-  </si>
-  <si>
     <t>q44j_G2</t>
   </si>
   <si>
     <t>Judges in [COUNTRY] decide cases in an independent manner and are not subject to any sort of pressure. Do you agree or disagree that judges make independent decisions and are not influenced by external pressures?</t>
   </si>
   <si>
+    <t>7.4: Civil justice is impartial and free from corruption and undue influence</t>
+  </si>
+  <si>
+    <t>7: Civil Justice</t>
+  </si>
+  <si>
+    <t>8.3: Adjudication</t>
+  </si>
+  <si>
+    <t>8: Criminal Justice</t>
+  </si>
+  <si>
     <t>CTZ_accountability</t>
   </si>
   <si>
-    <t>1.11: Government officials who abuse their power are sanctioned for misconduct (accountability and sanctions for misconduct)</t>
+    <t>q57_G1 and q57_G2</t>
   </si>
   <si>
     <t>Assume that a high-ranking government official is taking 
@@ -128,15 +137,18 @@
     <t>COR_parliament</t>
   </si>
   <si>
+    <t>q3a</t>
+  </si>
+  <si>
+    <t>Members of Parliament/Congress. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
+  </si>
+  <si>
+    <t>2.1: Absence of Bribery</t>
+  </si>
+  <si>
     <t>2: Absence of Corruption</t>
   </si>
   <si>
-    <t>q3a</t>
-  </si>
-  <si>
-    <t>Members of Parliament/Congress. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
-  </si>
-  <si>
     <t>COR_govt_national</t>
   </si>
   <si>
@@ -164,6 +176,9 @@
     <t>Police officers. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
   </si>
   <si>
+    <t>8.1: Criminal Investigation</t>
+  </si>
+  <si>
     <t>BRB_health_B</t>
   </si>
   <si>
@@ -173,18 +188,9 @@
     <t>Did you have to pay a bribe to receive the service or expedite the process?</t>
   </si>
   <si>
-    <t>2.5: Absence of corruption in electoral practices</t>
-  </si>
-  <si>
     <t>TRT_police</t>
   </si>
   <si>
-    <t>3.2: Civic participation is effectively guaranteed</t>
-  </si>
-  <si>
-    <t>3: Open Government</t>
-  </si>
-  <si>
     <t>q1e</t>
   </si>
   <si>
@@ -203,15 +209,15 @@
     <t>IRE_govtbudget</t>
   </si>
   <si>
+    <t>q9a</t>
+  </si>
+  <si>
+    <t>Detailed budget figures of government agencies. If you were to request to have access to these documents, how likely do you think it is that the government agency will grant it, assuming the information is properly requested? Would you say that it is very likely, likely, unlikely, or very unlikely?</t>
+  </si>
+  <si>
     <t>3.1: Right to information is effectively guaranteed</t>
   </si>
   <si>
-    <t>q9a</t>
-  </si>
-  <si>
-    <t>Detailed budget figures of government agencies. If you were to request to have access to these documents, how likely do you think it is that the government agency will grant it, assuming the information is properly requested? Would you say that it is very likely, likely, unlikely, or very unlikely?</t>
-  </si>
-  <si>
     <t>IRE_govtcontracts</t>
   </si>
   <si>
@@ -246,15 +252,6 @@
   </si>
   <si>
     <t>In [COUNTRY], people can freely join together with others to draw attention to an issue or sign a petition. Do you agree or disagree that workers' freedom to form labor unions and negotiate with employers is important?</t>
-  </si>
-  <si>
-    <t>4.2: Freedoms</t>
-  </si>
-  <si>
-    <t>4: Fundamental Rights</t>
-  </si>
-  <si>
-    <t>4.5: Citizens' Rights</t>
   </si>
   <si>
     <t>CPA_partdem_congress</t>
@@ -279,13 +276,13 @@
     <t>CPB_unions</t>
   </si>
   <si>
+    <t>q39d_G2</t>
+  </si>
+  <si>
+    <t>In practice, workers in [COUNTRY] can freely form labor unions and bargain for their rights with their employers. o you agree or disagree that workers' freedom to form labor unions and negotiate with employers is important?</t>
+  </si>
+  <si>
     <t>4.4: Solidarity</t>
-  </si>
-  <si>
-    <t>q39d_G2</t>
-  </si>
-  <si>
-    <t>In practice, workers in [COUNTRY] can freely form labor unions and bargain for their rights with their employers. o you agree or disagree that workers' freedom to form labor unions and negotiate with employers is important?</t>
   </si>
   <si>
     <t>CPB_community</t>
@@ -319,60 +316,45 @@
     <t>CJP_proofburden</t>
   </si>
   <si>
+    <t>q44j_G1</t>
+  </si>
+  <si>
+    <t>Treats those accused of crime as ‘innocent until proven guilty. Please tell us how confident you are that the criminal justice system as a whole:</t>
+  </si>
+  <si>
     <t>4.6: Justice</t>
   </si>
   <si>
-    <t>q44j_G1</t>
-  </si>
-  <si>
-    <t>Treats those accused of crime as ‘innocent until proven guilty. Please tell us how confident you are that the criminal justice system as a whole:</t>
+    <t>8.6: Due process of law</t>
   </si>
   <si>
     <t>SEC_walking</t>
   </si>
   <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t>How safe do you feel walking in your neighborhood at night?</t>
+  </si>
+  <si>
     <t>5.1: People feel safe</t>
   </si>
   <si>
-    <t>5: Order and Security</t>
-  </si>
-  <si>
-    <t>q10</t>
-  </si>
-  <si>
-    <t>How safe do you feel walking in your neighborhood at night?</t>
+    <t>5: Security</t>
   </si>
   <si>
     <t>COR_judges</t>
   </si>
   <si>
-    <t>7.4: Civil justice is impartial and free from corruption and undue influence</t>
-  </si>
-  <si>
-    <t>7: Civil Justice</t>
-  </si>
-  <si>
     <t>q3d</t>
   </si>
   <si>
     <t>Judges and Magistrates. How many of the following people in [COUNTRY] do you think are involved in corrupt practices?</t>
   </si>
   <si>
-    <t>8.3: Adjudication</t>
-  </si>
-  <si>
-    <t>8: Criminal Justice</t>
-  </si>
-  <si>
-    <t>8.1: Criminal Investigation</t>
-  </si>
-  <si>
     <t>CJP_fairtrial</t>
   </si>
   <si>
-    <t>8.6: Due process of law</t>
-  </si>
-  <si>
     <t>q44h_G1</t>
   </si>
   <si>
@@ -391,13 +373,13 @@
     <t>LEP_indprosecutors</t>
   </si>
   <si>
+    <t>q43f_G2</t>
+  </si>
+  <si>
+    <t>Prosecutors in [COUNTRY] prosecute crimes committed in an independent manner and are not subject to any sort of pressure. Do you agree or disagree that prosecutors handle criminal cases independently and without external influence?</t>
+  </si>
+  <si>
     <t>8.2: Prosecution and pre-trial process</t>
-  </si>
-  <si>
-    <t>q43f_G2</t>
-  </si>
-  <si>
-    <t>Prosecutors in [COUNTRY] prosecute crimes committed in an independent manner and are not subject to any sort of pressure. Do you agree or disagree that prosecutors handle criminal cases independently and without external influence?</t>
   </si>
   <si>
     <t>TRT_people</t>
@@ -599,6 +581,9 @@
     <t>Allows all victims of crime to seek justice regardless of who they are. Please tell us how confident you are that the criminal justice system as a whole:</t>
   </si>
   <si>
+    <t>8.5: Victim's Rights</t>
+  </si>
+  <si>
     <t>CJP_victimsupport</t>
   </si>
   <si>
@@ -608,13 +593,22 @@
     <t>Provides victims of crime with the service and support they need. Please tell us how confident you are that the criminal justice system as a whole:</t>
   </si>
   <si>
-    <t>q57_G1 and q57_G2</t>
-  </si>
-  <si>
-    <t>2.1: Absence of Bribery</t>
-  </si>
-  <si>
-    <t>8.5: Victim's Rights</t>
+    <t>subpillar</t>
+  </si>
+  <si>
+    <t>pillar</t>
+  </si>
+  <si>
+    <t>1.11: Government officials who abuse their power are sanctioned for misconduct (accountability and sanctions for misconduct)</t>
+  </si>
+  <si>
+    <t>1: Constraints on Government Powers</t>
+  </si>
+  <si>
+    <t>BRB_permit_B</t>
+  </si>
+  <si>
+    <t>q7a</t>
   </si>
 </sst>
 </file>
@@ -948,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -961,21 +955,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -984,66 +978,66 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1052,1149 +1046,1200 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
         <v>75</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
         <v>77</v>
       </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
         <v>80</v>
       </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>81</v>
-      </c>
-      <c r="E31" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
         <v>87</v>
       </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>88</v>
-      </c>
-      <c r="E34" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E72" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s">
-        <v>192</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
